--- a/zbior_punktow.xlsx
+++ b/zbior_punktow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24805"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE84411-ACB9-42E3-8245-138B3AA77AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E23E1483-A7DD-4753-B732-90933D209754}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{E23E1483-A7DD-4753-B732-90933D209754}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -154,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +277,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -331,9 +333,9 @@
                     <a:fld id="{37A7C9B6-7DED-4FF7-A0E5-15A08509CFD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -361,12 +363,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70F8F78E-E3DF-449D-9F44-980BC635AD27}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{84E5BDB4-3310-41F4-9C8D-93C3BDB82D7F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -395,12 +397,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF5980B3-6F52-470D-97E3-C931D12A2B82}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{30CB59BF-26B0-42D0-9579-9460BE503800}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -429,12 +431,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A1B5E99-5394-49AB-BE3A-888B3E253932}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{8A2E7580-883F-4E2E-B987-FBB3D6C3DD8E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -463,12 +465,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A34C385-F552-420A-ABD2-B94ADB426FC1}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{AED5C4A5-4081-4788-956F-3CC9A03E173F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -497,12 +499,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A39DB7A4-062B-4F23-A82A-34534CACF71D}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{E60C8902-F300-45D1-93F1-B60203852725}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -531,12 +533,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35E4D962-F550-4F50-B4BC-5E98CB2F7CA1}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{4FCC3540-1F3E-4141-8302-197D80196AF3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -565,12 +567,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{959281FD-7F2A-4BBB-8B41-F70847C92C66}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{B036B686-D26D-45B2-832B-0C06F08DC115}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -599,12 +601,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DEF4533C-206E-47D0-A551-86C7791E3A9A}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{4EE85DD5-8418-4241-8734-7922065D8945}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -633,12 +635,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F1941FD-0075-43A1-BA04-0C6C004CE2F5}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{04A22663-D749-444C-BF09-F64C7F82846B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -667,12 +669,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D23B3CF-2763-4B20-977D-2414267AFE91}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{991101A3-78A1-4CD7-A6C8-C980E98F9CA8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -701,12 +703,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56EB4ACE-08A2-4B71-8445-8C82776096D6}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{E2FCE9FA-8D21-47EF-9169-518D89CEFD0B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -735,12 +737,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01D99200-57FF-4ED1-A428-2603D5AC2A85}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{62B6E291-9570-4F1F-8CA6-5629CDDE90B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -769,12 +771,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18B875C5-3A2A-490E-ACD1-A1B9F08A8166}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{B3B2D9D2-5536-4E78-A6DB-41BA6DC4063D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -803,12 +805,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05F6801B-6940-4A89-8451-B60B27ED211D}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{FF73FB82-9906-4ACD-8571-A686CA1D6706}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -837,12 +839,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{902CF349-8051-4371-A5DB-E00DC892477E}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{733B12F9-B812-4D81-94C4-84A800945BD9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -871,12 +873,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39A3C3F1-F47B-49F5-B467-81B2CA36A104}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{8EBC9CDB-B59E-4D47-98F3-DA5091E4DA3D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -905,12 +907,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0ADBEFCA-3AAC-461F-A540-A726E5D24FD1}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{B9D970C6-D713-444A-BFBF-F50EBAC9BA47}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -939,12 +941,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88078769-5886-4B3D-8891-D9E1B36182C4}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{2FDB938A-64E8-4307-9327-634F7CE283EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -973,12 +975,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A604083-7C53-46D5-84EB-6DBB14196A13}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{C107EDFA-1A9D-4167-8A47-540B0E0C74D1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1007,12 +1009,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{739DEF98-900D-43D9-8B73-EA2962E25438}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{1AC7A9F5-AC8E-401A-A5EB-0DF2C630EB51}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1041,12 +1043,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5C4CD10-D295-4AB8-9140-72025E028029}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{2FA15048-0B09-43D6-9381-06A6BA07B09C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1075,12 +1077,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CF4443D-30EF-492D-944B-088665C7EC12}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{1D5ED4D9-CADE-48DD-A647-CB7F8387D601}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1109,12 +1111,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{349C7CF4-81ED-4828-B3E2-4D69F3D4576F}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{3726025F-D287-484C-AEE5-E0E539C0E03A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1143,12 +1145,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02B12FF0-C2CA-4945-94D9-47FF02D46265}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{5E452908-F7C0-444B-8879-5991A68ED94E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1177,12 +1179,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F5EECCBC-B7FB-4D77-B03A-D1720A7AB972}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{37F17CC7-86EE-4FA5-AE9A-D043B0655E49}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1211,12 +1213,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C6465C7-69EC-4C2D-9085-3165C6B4EC21}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{B73D4407-E7DB-457B-9CAF-2865F4D414D9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1245,12 +1247,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA1038F7-53C8-4D2B-B5E6-BDA66DF6446E}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{F5EAEB87-8672-4B5C-9F60-9E3229645FBB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1279,12 +1281,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C16E78E-0669-4EB3-A5D2-1E58F6FEEED0}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{E6853B7B-FC4A-4AEE-8EBC-64DE05583564}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1313,12 +1315,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{858A34C3-636C-490E-A4BF-2F8CD02949A9}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{A6CE082F-2BC0-44A7-A35E-4E56B1E7D540}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1347,12 +1349,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF62D1F6-DF3A-436A-9F74-53CB9B12DDD5}" type="CELLRANGE">
-                      <a:rPr lang="pl-PL"/>
+                    <a:fld id="{24CF1784-431C-4598-90D6-13735E5865CE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[ZAKRES KOMÓREK]</a:t>
+                      <a:t>[]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="pl-PL"/>
+                    <a:endParaRPr/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1400,7 +1402,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1811,7 +1813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72688815"/>
@@ -1873,7 +1875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="72672175"/>
@@ -1914,7 +1916,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2767,9 +2769,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2807,7 +2809,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2913,7 +2915,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3069,9 +3071,9 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3368,7 +3370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11">
       <c r="E33" t="s">
         <v>34</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11">
       <c r="E34" t="s">
         <v>31</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11">
       <c r="E35" t="s">
         <v>11</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11">
       <c r="E36" t="s">
         <v>33</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11">
       <c r="E37" t="s">
         <v>30</v>
       </c>
@@ -3508,9 +3510,9 @@
       <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +3666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3675,7 +3677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3730,7 +3732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3807,7 +3809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3818,7 +3820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -3875,9 +3877,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
